--- a/medicine/Psychotrope/Spencer_(bière)/Spencer_(bière).xlsx
+++ b/medicine/Psychotrope/Spencer_(bière)/Spencer_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Spencer_(bi%C3%A8re)</t>
+          <t>Spencer_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Spencer était une bière trappiste, brassée par la communauté de l'abbaye Saint-Joseph établie à Spencer dans l'état du Massachusetts au nord-est des États-Unis.  Le 10 décembre 2013, elle a reçu l'autorisation de porter le logo Authentic Trappist Product.
-C'était une des quatorze[1]marques de bières trappistes dans le monde — dont onze portent le logo Authentic trappist product présent sur l'étiquette[1] — et la seule bière trappiste non européenne.
+C'était une des quatorzemarques de bières trappistes dans le monde — dont onze portent le logo Authentic trappist product présent sur l'étiquette — et la seule bière trappiste non européenne.
 En mai 2022, les moines de la brasserie indique arrêter totalement la production de leur bière mais continuera à être vendue jusqu'à épuisement des stocks. La raison invoquée est la forte concurrence des bières artisanales alors que les religieux n’étaient pas disposés à investir davantage pour agrandir leur outil de production.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Spencer_(bi%C3%A8re)</t>
+          <t>Spencer_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trappist Ale est une bière blonde titrant 6,5 % de volume d'alcool et commercialisée en bouteilles de 33 et 75 cl.
 Trappist Holiday Ale est une bière ambrée titrant 9 % de volume d'alcool
